--- a/clientScrapySystem/DatabaseSystem/template/customerData_template.xlsx
+++ b/clientScrapySystem/DatabaseSystem/template/customerData_template.xlsx
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/clientScrapySystem/DatabaseSystem/template/customerData_template.xlsx
+++ b/clientScrapySystem/DatabaseSystem/template/customerData_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>_url2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -465,7 +469,7 @@
     <col min="7" max="7" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -531,6 +535,9 @@
       </c>
       <c r="V1" t="s">
         <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
